--- a/chemical-engineering/filtration/filtration.xlsx
+++ b/chemical-engineering/filtration/filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nami/Git/experimental-data/chemical-engineering/filtration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE3ACB44-2AD2-3E4C-A5BF-0FA55BA3488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C291C0-9215-6349-976D-B2213D02DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="3" xr2:uid="{82DAE9D3-78F7-0D49-9D2D-0FD4474B3A79}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15520" activeTab="4" xr2:uid="{82DAE9D3-78F7-0D49-9D2D-0FD4474B3A79}"/>
   </bookViews>
   <sheets>
     <sheet name="1回目" sheetId="3" r:id="rId1"/>
@@ -4052,7 +4052,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4678,7 +4678,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4989,7 +4989,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -5132,8 +5132,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="E18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5321,26 +5321,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="631cdf14-aa41-435c-909f-1bed5d2c8ade" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2693b52c-cf6b-473d-8b50-bd938ec4d080">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007FB77912A77A9A43AE28EA533549A021" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d69c3af803fc6601c9dcba13f0df1ee5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2693b52c-cf6b-473d-8b50-bd938ec4d080" xmlns:ns3="631cdf14-aa41-435c-909f-1bed5d2c8ade" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87a1c2592484d183723b2038852c24d6" ns2:_="" ns3:_="">
     <xsd:import namespace="2693b52c-cf6b-473d-8b50-bd938ec4d080"/>
@@ -5551,26 +5531,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1733B0CD-1DB4-4395-AF41-702DF0B6F0CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="631cdf14-aa41-435c-909f-1bed5d2c8ade"/>
-    <ds:schemaRef ds:uri="2693b52c-cf6b-473d-8b50-bd938ec4d080"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91D11394-1758-41D1-8F20-B879F2AB1DC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="631cdf14-aa41-435c-909f-1bed5d2c8ade" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2693b52c-cf6b-473d-8b50-bd938ec4d080">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49F73DB-2977-40C2-B637-E91AFB0CD9BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5587,4 +5568,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91D11394-1758-41D1-8F20-B879F2AB1DC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1733B0CD-1DB4-4395-AF41-702DF0B6F0CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="631cdf14-aa41-435c-909f-1bed5d2c8ade"/>
+    <ds:schemaRef ds:uri="2693b52c-cf6b-473d-8b50-bd938ec4d080"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/chemical-engineering/filtration/filtration.xlsx
+++ b/chemical-engineering/filtration/filtration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nami/Git/experimental-data/chemical-engineering/filtration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C291C0-9215-6349-976D-B2213D02DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC81487-F43F-8C45-9071-E4A3257AAE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15520" activeTab="4" xr2:uid="{82DAE9D3-78F7-0D49-9D2D-0FD4474B3A79}"/>
   </bookViews>
@@ -39,39 +39,10 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算値</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ケイサンチ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -209,17 +180,6 @@
     <rPh sb="1" eb="3">
       <t xml:space="preserve">カイメ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実験値</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ジッケンチ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実験値</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -362,6 +322,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -410,15 +374,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -434,12 +389,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -448,11 +412,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -460,9 +421,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -473,11 +431,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4052,7 +4025,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4061,26 +4034,27 @@
     <col min="3" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" ht="23" thickBot="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>28</v>
+    <row r="2" spans="1:6" ht="21" thickTop="1">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -4102,7 +4076,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7"/>
+      <c r="A3" s="5"/>
       <c r="B3">
         <f>B2+20</f>
         <v>40</v>
@@ -4124,7 +4098,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
+      <c r="A4" s="5"/>
       <c r="B4">
         <f t="shared" ref="B4:B13" si="2">B3+20</f>
         <v>60</v>
@@ -4146,7 +4120,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
+      <c r="A5" s="5"/>
       <c r="B5">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -4168,7 +4142,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
+      <c r="A6" s="5"/>
       <c r="B6">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -4190,7 +4164,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7"/>
+      <c r="A7" s="5"/>
       <c r="B7">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -4212,8 +4186,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
+      <c r="A8" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
@@ -4236,7 +4210,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
+      <c r="A9" s="5"/>
       <c r="B9">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -4258,7 +4232,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
+      <c r="A10" s="5"/>
       <c r="B10">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -4280,8 +4254,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
+      <c r="A11" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B11">
         <f t="shared" si="2"/>
@@ -4304,7 +4278,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
+      <c r="A12" s="5"/>
       <c r="B12">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -4326,7 +4300,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
+      <c r="A13" s="5"/>
       <c r="B13">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -4365,7 +4339,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4374,26 +4348,27 @@
     <col min="3" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" ht="23" thickBot="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>28</v>
+    <row r="2" spans="1:6" ht="21" thickTop="1">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -4415,7 +4390,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7"/>
+      <c r="A3" s="5"/>
       <c r="B3">
         <f>B2+20</f>
         <v>40</v>
@@ -4437,7 +4412,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
+      <c r="A4" s="5"/>
       <c r="B4">
         <f t="shared" ref="B4:B13" si="2">B3+20</f>
         <v>60</v>
@@ -4459,7 +4434,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
+      <c r="A5" s="5"/>
       <c r="B5">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -4481,7 +4456,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
+      <c r="A6" s="5"/>
       <c r="B6">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -4503,7 +4478,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7"/>
+      <c r="A7" s="5"/>
       <c r="B7">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -4525,8 +4500,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
+      <c r="A8" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
@@ -4549,7 +4524,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
+      <c r="A9" s="5"/>
       <c r="B9">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -4571,7 +4546,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
+      <c r="A10" s="5"/>
       <c r="B10">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -4593,8 +4568,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
+      <c r="A11" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B11">
         <f t="shared" si="2"/>
@@ -4617,7 +4592,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
+      <c r="A12" s="5"/>
       <c r="B12">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -4639,7 +4614,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
+      <c r="A13" s="5"/>
       <c r="B13">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -4678,7 +4653,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4687,26 +4662,27 @@
     <col min="3" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" ht="23" thickBot="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
+    <row r="2" spans="1:6" ht="21" thickTop="1">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -4728,8 +4704,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>27</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B3">
         <f>B2+20</f>
@@ -4752,7 +4728,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
+      <c r="A4" s="5"/>
       <c r="B4">
         <f t="shared" ref="B4:B13" si="2">B3+20</f>
         <v>60</v>
@@ -4774,7 +4750,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
+      <c r="A5" s="5"/>
       <c r="B5">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -4796,7 +4772,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
+      <c r="A6" s="5"/>
       <c r="B6">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -4818,7 +4794,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7"/>
+      <c r="A7" s="5"/>
       <c r="B7">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -4840,8 +4816,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
-        <v>29</v>
+      <c r="A8" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
@@ -4864,7 +4840,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
+      <c r="A9" s="5"/>
       <c r="B9">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -4886,7 +4862,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
+      <c r="A10" s="5"/>
       <c r="B10">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -4908,7 +4884,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7"/>
+      <c r="A11" s="5"/>
       <c r="B11">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -4930,7 +4906,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
+      <c r="A12" s="5"/>
       <c r="B12">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -4952,7 +4928,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
+      <c r="A13" s="5"/>
       <c r="B13">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -4987,50 +4963,51 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EE3FDB-53BF-7343-9A9E-4A45CE49DD6E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="2" customWidth="1"/>
     <col min="7" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="21" thickTop="1">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>129.41999999999999</v>
@@ -5045,7 +5022,7 @@
         <f>(D2-C2)/(B2-C2) *100</f>
         <v>1.3241135795203747</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>114.1593</v>
       </c>
       <c r="G2">
@@ -5055,13 +5032,13 @@
         <v>78.489999999999995</v>
       </c>
       <c r="I2">
-        <f>(H2-G2)/(F2-G2) *100</f>
-        <v>32.456404459063073</v>
+        <f>(H2-G2)/(F2-G2)</f>
+        <v>0.32456404459063071</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>130.24</v>
@@ -5076,7 +5053,7 @@
         <f>(D3-C3)/(B3-C3) *100</f>
         <v>1.3286611184114419</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>119.2561</v>
       </c>
       <c r="G3">
@@ -5086,13 +5063,13 @@
         <v>80.23</v>
       </c>
       <c r="I3">
-        <f>(H3-G3)/(F3-G3) *100</f>
-        <v>32.651032597534609</v>
+        <f>(H3-G3)/(F3-G3)</f>
+        <v>0.32651032597534607</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>129.03</v>
@@ -5107,7 +5084,7 @@
         <f>(D4-C4)/(B4-C4) *100</f>
         <v>1.1086797957695187</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>121.28</v>
       </c>
       <c r="G4">
@@ -5117,8 +5094,26 @@
         <v>82.02</v>
       </c>
       <c r="I4">
-        <f>(H4-G4)/(F4-G4) *100</f>
-        <v>33.106150962685284</v>
+        <f>(H4-G4)/(F4-G4)</f>
+        <v>0.33106150962685282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" thickBot="1">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" thickTop="1">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5130,191 +5125,169 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FD244D-D6A3-4C44-8951-BA3B8F01E18B}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="E18:F19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="6" customWidth="1"/>
-    <col min="2" max="14" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="4" customWidth="1"/>
+    <col min="2" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22">
-      <c r="B1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
+    <row r="1" spans="1:10" ht="23" thickBot="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="9"/>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+    <row r="2" spans="1:10" ht="21" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <f>質量!E2</f>
         <v>1.3241135795203747</v>
       </c>
-      <c r="C3">
+      <c r="C2">
         <f>質量!I2</f>
-        <v>32.456404459063073</v>
-      </c>
-      <c r="D3" s="5">
+        <v>0.32456404459063071</v>
+      </c>
+      <c r="D2" s="3">
         <v>1000000</v>
       </c>
-      <c r="E3">
+      <c r="E2">
         <f>(SLOPE('1回目'!$F$8:$F$13,'1回目'!$E$8:$E$13))^-1</f>
         <v>1.5207949890227321E-5</v>
       </c>
-      <c r="G3">
-        <f>(INTERCEPT('1回目'!$F$8:$F$13,'1回目'!$E$8:$E$13))*E3/2</f>
+      <c r="F2">
+        <f>(INTERCEPT('1回目'!$F$8:$F$13,'1回目'!$E$8:$E$13))*E2/2</f>
         <v>0.10692711595011875</v>
       </c>
-      <c r="I3" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="I3" ca="1">2*A()^2*$D3*(1-$C3*$B3)/(E3*rho()*mu()*$B3)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J3" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="J3" ca="1">2*A()^2*$D3*(1-$C3*$B3)/(F3*rho()*mu()*$B3)</f>
-        <v>#NAME?</v>
+      <c r="G2" s="3">
+        <f>2*0.13^2*1000000*(1-C2*B2)/(E2*1000*0.001*B2)</f>
+        <v>957147183.48077464</v>
+      </c>
+      <c r="H2" s="3">
+        <f>1000*B2/(1-C2*B2)</f>
+        <v>2322.0271945130735</v>
+      </c>
+      <c r="I2" s="3">
+        <f>G2*H2*0.01582/0.13</f>
+        <v>270463805423.44876</v>
+      </c>
+      <c r="J2" s="3">
+        <f>G2*H2*F2/0.13</f>
+        <v>1828060346575.4402</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <f>質量!E3</f>
         <v>1.3286611184114419</v>
       </c>
-      <c r="C4">
+      <c r="C3">
         <f>質量!I3</f>
-        <v>32.651032597534609</v>
-      </c>
-      <c r="D4" s="5">
+        <v>0.32651032597534607</v>
+      </c>
+      <c r="D3" s="3">
         <v>1000000</v>
       </c>
-      <c r="E4">
+      <c r="E3">
         <f>(SLOPE('2回目'!$F$8:$F$13,'2回目'!$E$8:$E$13))^-1</f>
         <v>2.99112036540515E-6</v>
       </c>
-      <c r="G4">
-        <f>(INTERCEPT('2回目'!$F$8:$F$13,'2回目'!$E$8:$E$13))*E4/2</f>
+      <c r="F3">
+        <f>(INTERCEPT('2回目'!$F$8:$F$13,'2回目'!$E$8:$E$13))*E3/2</f>
         <v>1.8426130926103443E-2</v>
       </c>
-      <c r="I4" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="I4" ca="1">2*A()^2*$D4*(1-$C4*$B4)/(E4*rho()*mu()*$B4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J4" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="J4" ca="1">2*A()^2*$D4*(1-$C4*$B4)/(F4*rho()*mu()*$B4)</f>
-        <v>#NAME?</v>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G4" si="0">2*0.13^2*1000000*(1-C3*B3)/(E3*1000*0.001*B3)</f>
+        <v>4815283933.6592026</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H4" si="1">1000*B3/(1-C3*B3)</f>
+        <v>2346.7180299877218</v>
+      </c>
+      <c r="I3" s="3">
+        <f>G3*H3*0.01357/0.13</f>
+        <v>1179558014718.0415</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J4" si="2">G3*H3*F3/0.13</f>
+        <v>1601672101262.2905</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <f>質量!E4</f>
         <v>1.1086797957695187</v>
       </c>
-      <c r="C5">
+      <c r="C4">
         <f>質量!I4</f>
-        <v>33.106150962685284</v>
-      </c>
-      <c r="D5" s="5">
+        <v>0.33106150962685282</v>
+      </c>
+      <c r="D4" s="3">
         <v>1000000</v>
       </c>
-      <c r="E5">
+      <c r="E4">
         <f>(SLOPE('3回目'!$F$3:$F$13,'3回目'!$E$3:$E$13))^-1</f>
         <v>5.2013906794211596E-6</v>
       </c>
-      <c r="G5">
-        <f>(INTERCEPT('3回目'!$F$3:$F$13,'3回目'!$E$3:$E$13))*E5/2</f>
+      <c r="F4">
+        <f>(INTERCEPT('3回目'!$F$3:$F$13,'3回目'!$E$3:$E$13))*E4/2</f>
         <v>2.7097273185644075E-2</v>
       </c>
-      <c r="I5" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="I5" ca="1">2*A()^2*$D5*(1-$C5*$B5)/(E5*rho()*mu()*$B5)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" s="5" t="e" cm="1">
-        <f t="array" aca="1" ref="J5" ca="1">2*A()^2*$D5*(1-$C5*$B5)/(F5*rho()*mu()*$B5)</f>
-        <v>#NAME?</v>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>3709936955.3750625</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>1751.5828957917056</v>
+      </c>
+      <c r="I4" s="3">
+        <f>G4*H4*0.01706/0.13</f>
+        <v>852771936080.29834</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="2"/>
+        <v>1354501413658.7605</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5532,15 +5505,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="631cdf14-aa41-435c-909f-1bed5d2c8ade" xsi:nil="true"/>
@@ -5549,6 +5513,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5571,14 +5544,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91D11394-1758-41D1-8F20-B879F2AB1DC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1733B0CD-1DB4-4395-AF41-702DF0B6F0CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5587,4 +5552,12 @@
     <ds:schemaRef ds:uri="2693b52c-cf6b-473d-8b50-bd938ec4d080"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91D11394-1758-41D1-8F20-B879F2AB1DC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>